--- a/formatos_hoja_de_calculo/CE-TABLET-10391-2024.xlsx
+++ b/formatos_hoja_de_calculo/CE-TABLET-10391-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9D136-4995-4D0A-9295-126794249B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303E8A9E-0A37-44FE-8686-5ED14C5179F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5682,8 +5682,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N141" sqref="N141"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5700,6 +5700,7 @@
     <col min="23" max="24" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="11.5703125" customWidth="1"/>
     <col min="26" max="26" width="50.140625" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,49 +5922,49 @@
         <v>39</v>
       </c>
       <c r="N3">
-        <v>10149946</v>
+        <v>10180976</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>491</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
         <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>492</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
         <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB3" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC3" t="s">
         <v>58</v>
       </c>
       <c r="AD3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -6006,50 +6007,41 @@
       <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="N4">
-        <v>10235653</v>
+      <c r="N4" s="4">
+        <v>10506788</v>
       </c>
       <c r="O4" t="s">
-        <v>494</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S4" t="s">
-        <v>495</v>
+        <v>106</v>
       </c>
       <c r="U4" t="s">
         <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>487</v>
-      </c>
-      <c r="X4" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>498</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB4" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC4" t="s">
         <v>58</v>
       </c>
       <c r="AD4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -6093,49 +6085,49 @@
         <v>39</v>
       </c>
       <c r="N5">
-        <v>10426112</v>
+        <v>10522567</v>
       </c>
       <c r="O5" t="s">
-        <v>499</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="R5" t="s">
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>501</v>
+        <v>108</v>
       </c>
       <c r="U5" t="s">
         <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="Y5" t="s">
         <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>503</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB5" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC5" t="s">
         <v>58</v>
       </c>
       <c r="AD5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -6179,46 +6171,40 @@
         <v>39</v>
       </c>
       <c r="N6" s="4">
-        <v>10501912</v>
+        <v>10523133</v>
       </c>
       <c r="O6" t="s">
-        <v>504</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>505</v>
+        <v>135</v>
       </c>
       <c r="R6" t="s">
-        <v>506</v>
+        <v>136</v>
       </c>
       <c r="S6" t="s">
-        <v>507</v>
+        <v>137</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>487</v>
-      </c>
-      <c r="X6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>509</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB6" t="s">
-        <v>1763</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s">
         <v>58</v>
       </c>
       <c r="AD6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -6262,49 +6248,49 @@
         <v>39</v>
       </c>
       <c r="N7">
-        <v>10516937</v>
+        <v>10523147</v>
       </c>
       <c r="O7" t="s">
-        <v>510</v>
+        <v>138</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="R7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="S7" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="U7" t="s">
         <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s">
-        <v>511</v>
+        <v>142</v>
       </c>
       <c r="Y7" t="s">
         <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>512</v>
+        <v>143</v>
       </c>
       <c r="AA7" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB7" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="AC7" t="s">
         <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -6347,47 +6333,50 @@
       <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="4">
-        <v>10522956</v>
+      <c r="N8">
+        <v>10523152</v>
       </c>
       <c r="O8" t="s">
-        <v>513</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="S8" t="s">
-        <v>467</v>
+        <v>147</v>
       </c>
       <c r="U8" t="s">
         <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X8" t="s">
-        <v>514</v>
+        <v>148</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>515</v>
+        <v>149</v>
       </c>
       <c r="AA8" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB8" t="s">
-        <v>1763</v>
+        <v>111</v>
       </c>
       <c r="AC8" t="s">
         <v>58</v>
       </c>
       <c r="AD8" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -6431,49 +6420,49 @@
         <v>39</v>
       </c>
       <c r="N9">
-        <v>10607457</v>
+        <v>10598727</v>
       </c>
       <c r="O9" t="s">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="P9" t="s">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="R9" t="s">
-        <v>518</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>519</v>
+        <v>181</v>
       </c>
       <c r="U9" t="s">
         <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s">
-        <v>520</v>
+        <v>182</v>
       </c>
       <c r="Y9" t="s">
         <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>521</v>
+        <v>183</v>
       </c>
       <c r="AA9" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB9" t="s">
-        <v>1763</v>
+        <v>111</v>
       </c>
       <c r="AC9" t="s">
         <v>58</v>
       </c>
       <c r="AD9" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -6517,46 +6506,46 @@
         <v>39</v>
       </c>
       <c r="N10" s="4">
-        <v>10771295</v>
+        <v>10632465</v>
       </c>
       <c r="O10" t="s">
-        <v>522</v>
+        <v>201</v>
       </c>
       <c r="P10" t="s">
-        <v>523</v>
+        <v>104</v>
       </c>
       <c r="R10" t="s">
-        <v>524</v>
+        <v>202</v>
       </c>
       <c r="S10" t="s">
-        <v>525</v>
+        <v>203</v>
       </c>
       <c r="U10" t="s">
         <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X10" t="s">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="Z10" t="s">
-        <v>527</v>
+        <v>205</v>
       </c>
       <c r="AA10" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB10" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="AC10" t="s">
         <v>58</v>
       </c>
       <c r="AD10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -6599,50 +6588,47 @@
       <c r="M11" t="s">
         <v>39</v>
       </c>
-      <c r="N11">
-        <v>10835878</v>
+      <c r="N11" s="4">
+        <v>10632583</v>
       </c>
       <c r="O11" t="s">
-        <v>530</v>
+        <v>211</v>
       </c>
       <c r="P11" t="s">
-        <v>531</v>
+        <v>212</v>
       </c>
       <c r="R11" t="s">
-        <v>532</v>
+        <v>166</v>
       </c>
       <c r="S11" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="U11" t="s">
         <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X11" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="Z11" t="s">
-        <v>534</v>
+        <v>215</v>
       </c>
       <c r="AA11" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB11" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC11" t="s">
         <v>58</v>
       </c>
       <c r="AD11" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -6685,50 +6671,47 @@
       <c r="M12" t="s">
         <v>39</v>
       </c>
-      <c r="N12">
-        <v>10307407</v>
+      <c r="N12" s="4">
+        <v>10632606</v>
       </c>
       <c r="O12" t="s">
-        <v>535</v>
+        <v>216</v>
       </c>
       <c r="P12" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="R12" t="s">
-        <v>536</v>
+        <v>166</v>
       </c>
       <c r="S12" t="s">
-        <v>537</v>
+        <v>218</v>
       </c>
       <c r="U12" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X12" t="s">
-        <v>538</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="Z12" t="s">
-        <v>539</v>
+        <v>220</v>
       </c>
       <c r="AA12" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB12" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s">
         <v>58</v>
       </c>
       <c r="AD12" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -6771,50 +6754,47 @@
       <c r="M13" t="s">
         <v>39</v>
       </c>
-      <c r="N13">
-        <v>10404252</v>
+      <c r="N13" s="4">
+        <v>10632919</v>
       </c>
       <c r="O13" t="s">
-        <v>540</v>
+        <v>229</v>
       </c>
       <c r="P13" t="s">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="R13" t="s">
-        <v>472</v>
+        <v>231</v>
       </c>
       <c r="S13" t="s">
-        <v>465</v>
+        <v>232</v>
       </c>
       <c r="U13" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X13" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="Z13" t="s">
-        <v>542</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB13" t="s">
-        <v>529</v>
+        <v>111</v>
       </c>
       <c r="AC13" t="s">
         <v>58</v>
       </c>
       <c r="AD13" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -6857,44 +6837,41 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="N14">
-        <v>10492452</v>
+      <c r="N14" s="4">
+        <v>10749970</v>
       </c>
       <c r="O14" t="s">
-        <v>543</v>
+        <v>189</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="R14" t="s">
-        <v>544</v>
+        <v>198</v>
       </c>
       <c r="S14" t="s">
-        <v>472</v>
+        <v>249</v>
       </c>
       <c r="U14" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V14" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s">
-        <v>545</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
-        <v>546</v>
+        <v>251</v>
       </c>
       <c r="AA14" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB14" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC14" t="s">
         <v>58</v>
@@ -6943,50 +6920,47 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="N15">
-        <v>10621605</v>
+      <c r="N15" s="4">
+        <v>10767383</v>
       </c>
       <c r="O15" t="s">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s">
-        <v>548</v>
+        <v>273</v>
       </c>
       <c r="R15" t="s">
-        <v>549</v>
+        <v>208</v>
       </c>
       <c r="S15" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="U15" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X15" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="Z15" t="s">
-        <v>551</v>
+        <v>276</v>
       </c>
       <c r="AA15" t="s">
-        <v>528</v>
+        <v>56</v>
       </c>
       <c r="AB15" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC15" t="s">
         <v>58</v>
       </c>
       <c r="AD15" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -7030,49 +7004,49 @@
         <v>39</v>
       </c>
       <c r="N16">
-        <v>19831897</v>
+        <v>10790584</v>
       </c>
       <c r="O16" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S16" t="s">
-        <v>552</v>
+        <v>294</v>
       </c>
       <c r="U16" t="s">
         <v>44</v>
       </c>
       <c r="V16" t="s">
-        <v>553</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X16" t="s">
-        <v>554</v>
+        <v>295</v>
       </c>
       <c r="Y16" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="Z16" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
       <c r="AA16" t="s">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="AB16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC16" t="s">
         <v>58</v>
       </c>
       <c r="AD16" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -7116,43 +7090,43 @@
         <v>39</v>
       </c>
       <c r="N17">
-        <v>10377589</v>
+        <v>10217943</v>
       </c>
       <c r="O17" t="s">
-        <v>557</v>
+        <v>298</v>
       </c>
       <c r="P17" t="s">
         <v>299</v>
       </c>
       <c r="R17" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="S17" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="U17" t="s">
         <v>301</v>
       </c>
       <c r="V17" t="s">
-        <v>553</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s">
-        <v>487</v>
+        <v>46</v>
       </c>
       <c r="X17" t="s">
-        <v>558</v>
+        <v>302</v>
       </c>
       <c r="Y17" t="s">
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>559</v>
+        <v>303</v>
       </c>
       <c r="AA17" t="s">
-        <v>556</v>
+        <v>56</v>
       </c>
       <c r="AB17" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="s">
         <v>58</v>
@@ -10055,22 +10029,22 @@
         <v>39</v>
       </c>
       <c r="N57">
-        <v>10180976</v>
+        <v>10217951</v>
       </c>
       <c r="O57" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="R57" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="S57" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="U57" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V57" t="s">
         <v>45</v>
@@ -10079,13 +10053,13 @@
         <v>46</v>
       </c>
       <c r="X57" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="Y57" t="s">
         <v>48</v>
       </c>
       <c r="Z57" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="AA57" t="s">
         <v>56</v>
@@ -10141,22 +10115,22 @@
         <v>39</v>
       </c>
       <c r="N58">
-        <v>10217706</v>
+        <v>10218335</v>
       </c>
       <c r="O58" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="P58" t="s">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="R58" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="S58" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="U58" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V58" t="s">
         <v>45</v>
@@ -10165,25 +10139,25 @@
         <v>46</v>
       </c>
       <c r="X58" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="Y58" t="s">
         <v>48</v>
       </c>
       <c r="Z58" t="s">
-        <v>55</v>
+        <v>313</v>
       </c>
       <c r="AA58" t="s">
         <v>56</v>
       </c>
       <c r="AB58" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC58" t="s">
         <v>58</v>
       </c>
       <c r="AD58" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10227,22 +10201,22 @@
         <v>39</v>
       </c>
       <c r="N59">
-        <v>10217942</v>
+        <v>10491028</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
       <c r="P59" t="s">
-        <v>61</v>
+        <v>326</v>
       </c>
       <c r="R59" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="S59" t="s">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="U59" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V59" t="s">
         <v>45</v>
@@ -10251,25 +10225,25 @@
         <v>46</v>
       </c>
       <c r="X59" t="s">
-        <v>64</v>
+        <v>329</v>
       </c>
       <c r="Y59" t="s">
         <v>48</v>
       </c>
       <c r="Z59" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AA59" t="s">
         <v>56</v>
       </c>
       <c r="AB59" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC59" t="s">
         <v>58</v>
       </c>
       <c r="AD59" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,23 +10286,23 @@
       <c r="M60" t="s">
         <v>39</v>
       </c>
-      <c r="N60">
-        <v>10282511</v>
+      <c r="N60" s="4">
+        <v>10523140</v>
       </c>
       <c r="O60" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="P60" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="R60" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="S60" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="U60" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V60" t="s">
         <v>45</v>
@@ -10337,25 +10311,22 @@
         <v>46</v>
       </c>
       <c r="X60" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="Z60" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="AA60" t="s">
         <v>56</v>
       </c>
       <c r="AB60" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC60" t="s">
         <v>58</v>
       </c>
       <c r="AD60" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10399,22 +10370,22 @@
         <v>39</v>
       </c>
       <c r="N61">
-        <v>10287436</v>
+        <v>10523148</v>
       </c>
       <c r="O61" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="P61" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="R61" t="s">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="S61" t="s">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="U61" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V61" t="s">
         <v>45</v>
@@ -10423,19 +10394,19 @@
         <v>46</v>
       </c>
       <c r="X61" t="s">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Y61" t="s">
         <v>48</v>
       </c>
       <c r="Z61" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AA61" t="s">
         <v>56</v>
       </c>
       <c r="AB61" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC61" t="s">
         <v>58</v>
@@ -10485,22 +10456,22 @@
         <v>39</v>
       </c>
       <c r="N62">
-        <v>10312604</v>
+        <v>10523193</v>
       </c>
       <c r="O62" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="P62" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="R62" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
       <c r="S62" t="s">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V62" t="s">
         <v>45</v>
@@ -10509,25 +10480,25 @@
         <v>46</v>
       </c>
       <c r="X62" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="Y62" t="s">
         <v>48</v>
       </c>
       <c r="Z62" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
       <c r="AA62" t="s">
         <v>56</v>
       </c>
       <c r="AB62" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AC62" t="s">
         <v>58</v>
       </c>
       <c r="AD62" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10571,22 +10542,22 @@
         <v>39</v>
       </c>
       <c r="N63">
-        <v>10312650</v>
+        <v>10598862</v>
       </c>
       <c r="O63" t="s">
-        <v>88</v>
+        <v>422</v>
       </c>
       <c r="P63" t="s">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="R63" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="S63" t="s">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="U63" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V63" t="s">
         <v>45</v>
@@ -10595,19 +10566,19 @@
         <v>46</v>
       </c>
       <c r="X63" t="s">
-        <v>92</v>
+        <v>425</v>
       </c>
       <c r="Y63" t="s">
         <v>48</v>
       </c>
       <c r="Z63" t="s">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="AA63" t="s">
         <v>56</v>
       </c>
       <c r="AB63" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC63" t="s">
         <v>58</v>
@@ -10656,23 +10627,23 @@
       <c r="M64" t="s">
         <v>39</v>
       </c>
-      <c r="N64">
-        <v>10488517</v>
+      <c r="N64" s="4">
+        <v>10632486</v>
       </c>
       <c r="O64" t="s">
-        <v>94</v>
+        <v>427</v>
       </c>
       <c r="P64" t="s">
-        <v>95</v>
+        <v>428</v>
       </c>
       <c r="R64" t="s">
-        <v>96</v>
+        <v>429</v>
       </c>
       <c r="S64" t="s">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="U64" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V64" t="s">
         <v>45</v>
@@ -10681,25 +10652,22 @@
         <v>46</v>
       </c>
       <c r="X64" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>48</v>
+        <v>431</v>
       </c>
       <c r="Z64" t="s">
-        <v>99</v>
+        <v>432</v>
       </c>
       <c r="AA64" t="s">
         <v>56</v>
       </c>
       <c r="AB64" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AC64" t="s">
         <v>58</v>
       </c>
       <c r="AD64" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10742,23 +10710,23 @@
       <c r="M65" t="s">
         <v>39</v>
       </c>
-      <c r="N65" s="4">
-        <v>10494905</v>
+      <c r="N65">
+        <v>10657910</v>
       </c>
       <c r="O65" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="P65" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="R65" t="s">
-        <v>102</v>
+        <v>454</v>
       </c>
       <c r="S65" t="s">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="U65" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V65" t="s">
         <v>45</v>
@@ -10766,11 +10734,20 @@
       <c r="W65" t="s">
         <v>46</v>
       </c>
+      <c r="X65" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>457</v>
+      </c>
       <c r="AA65" t="s">
         <v>56</v>
       </c>
       <c r="AB65" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC65" t="s">
         <v>58</v>
@@ -10820,22 +10797,22 @@
         <v>39</v>
       </c>
       <c r="N66" s="4">
-        <v>10506788</v>
+        <v>10665647</v>
       </c>
       <c r="O66" t="s">
-        <v>50</v>
+        <v>433</v>
       </c>
       <c r="P66" t="s">
-        <v>104</v>
+        <v>458</v>
       </c>
       <c r="R66" t="s">
-        <v>105</v>
+        <v>459</v>
       </c>
       <c r="S66" t="s">
-        <v>106</v>
+        <v>294</v>
       </c>
       <c r="U66" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V66" t="s">
         <v>45</v>
@@ -10843,6 +10820,12 @@
       <c r="W66" t="s">
         <v>46</v>
       </c>
+      <c r="X66" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>461</v>
+      </c>
       <c r="AA66" t="s">
         <v>56</v>
       </c>
@@ -10896,23 +10879,23 @@
       <c r="M67" t="s">
         <v>39</v>
       </c>
-      <c r="N67">
-        <v>10522567</v>
+      <c r="N67" s="4">
+        <v>10750340</v>
       </c>
       <c r="O67" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
       <c r="P67" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="R67" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="S67" t="s">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="U67" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V67" t="s">
         <v>45</v>
@@ -10921,13 +10904,10 @@
         <v>46</v>
       </c>
       <c r="X67" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="Z67" t="s">
-        <v>110</v>
+        <v>464</v>
       </c>
       <c r="AA67" t="s">
         <v>56</v>
@@ -10983,49 +10963,49 @@
         <v>39</v>
       </c>
       <c r="N68">
-        <v>10522586</v>
+        <v>10492452</v>
       </c>
       <c r="O68" t="s">
-        <v>112</v>
+        <v>543</v>
       </c>
       <c r="P68" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="R68" t="s">
-        <v>114</v>
+        <v>544</v>
       </c>
       <c r="S68" t="s">
-        <v>115</v>
+        <v>472</v>
       </c>
       <c r="U68" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V68" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W68" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X68" t="s">
-        <v>116</v>
+        <v>545</v>
       </c>
       <c r="Y68" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="Z68" t="s">
-        <v>117</v>
+        <v>546</v>
       </c>
       <c r="AA68" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB68" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s">
         <v>58</v>
       </c>
       <c r="AD68" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11069,40 +11049,40 @@
         <v>39</v>
       </c>
       <c r="N69">
-        <v>10522589</v>
+        <v>10377589</v>
       </c>
       <c r="O69" t="s">
-        <v>118</v>
+        <v>557</v>
       </c>
       <c r="P69" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="R69" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="S69" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="U69" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V69" t="s">
-        <v>45</v>
+        <v>553</v>
       </c>
       <c r="W69" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X69" t="s">
-        <v>121</v>
+        <v>558</v>
       </c>
       <c r="Y69" t="s">
         <v>48</v>
       </c>
       <c r="Z69" t="s">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c r="AA69" t="s">
-        <v>56</v>
+        <v>556</v>
       </c>
       <c r="AB69" t="s">
         <v>80</v>
@@ -11155,19 +11135,19 @@
         <v>39</v>
       </c>
       <c r="N70">
-        <v>10522590</v>
+        <v>10287436</v>
       </c>
       <c r="O70" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="P70" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="R70" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="S70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="U70" t="s">
         <v>44</v>
@@ -11179,13 +11159,13 @@
         <v>46</v>
       </c>
       <c r="X70" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s">
         <v>48</v>
       </c>
       <c r="Z70" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="AA70" t="s">
         <v>56</v>
@@ -11241,19 +11221,19 @@
         <v>39</v>
       </c>
       <c r="N71">
-        <v>10522961</v>
+        <v>10312650</v>
       </c>
       <c r="O71" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="P71" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="R71" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="S71" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="U71" t="s">
         <v>44</v>
@@ -11265,25 +11245,25 @@
         <v>46</v>
       </c>
       <c r="X71" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="Y71" t="s">
         <v>48</v>
       </c>
       <c r="Z71" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AA71" t="s">
         <v>56</v>
       </c>
       <c r="AB71" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s">
         <v>58</v>
       </c>
       <c r="AD71" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11327,19 +11307,19 @@
         <v>39</v>
       </c>
       <c r="N72" s="4">
-        <v>10523133</v>
+        <v>10494905</v>
       </c>
       <c r="O72" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="P72" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="R72" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="S72" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="U72" t="s">
         <v>44</v>
@@ -11354,7 +11334,7 @@
         <v>56</v>
       </c>
       <c r="AB72" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC72" t="s">
         <v>58</v>
@@ -11404,19 +11384,19 @@
         <v>39</v>
       </c>
       <c r="N73">
-        <v>10523147</v>
+        <v>10522589</v>
       </c>
       <c r="O73" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="P73" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="R73" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="S73" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="U73" t="s">
         <v>44</v>
@@ -11428,19 +11408,19 @@
         <v>46</v>
       </c>
       <c r="X73" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="Y73" t="s">
         <v>48</v>
       </c>
       <c r="Z73" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="AA73" t="s">
         <v>56</v>
       </c>
       <c r="AB73" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC73" t="s">
         <v>58</v>
@@ -11490,19 +11470,19 @@
         <v>39</v>
       </c>
       <c r="N74">
-        <v>10523152</v>
+        <v>10522590</v>
       </c>
       <c r="O74" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="P74" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="R74" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="S74" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="U74" t="s">
         <v>44</v>
@@ -11514,19 +11494,19 @@
         <v>46</v>
       </c>
       <c r="X74" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="Y74" t="s">
         <v>48</v>
       </c>
       <c r="Z74" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="AA74" t="s">
         <v>56</v>
       </c>
       <c r="AB74" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s">
         <v>58</v>
@@ -11576,19 +11556,19 @@
         <v>39</v>
       </c>
       <c r="N75">
-        <v>10523154</v>
+        <v>10523180</v>
       </c>
       <c r="O75" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R75" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S75" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="U75" t="s">
         <v>44</v>
@@ -11600,25 +11580,25 @@
         <v>46</v>
       </c>
       <c r="X75" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Y75" t="s">
         <v>48</v>
       </c>
       <c r="Z75" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AA75" t="s">
         <v>56</v>
       </c>
       <c r="AB75" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="s">
         <v>58</v>
       </c>
       <c r="AD75" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11661,20 +11641,20 @@
       <c r="M76" t="s">
         <v>39</v>
       </c>
-      <c r="N76">
-        <v>10523180</v>
+      <c r="N76" s="4">
+        <v>10598900</v>
       </c>
       <c r="O76" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="P76" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="R76" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="S76" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="U76" t="s">
         <v>44</v>
@@ -11686,13 +11666,13 @@
         <v>46</v>
       </c>
       <c r="X76" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="Y76" t="s">
         <v>48</v>
       </c>
       <c r="Z76" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="AA76" t="s">
         <v>56</v>
@@ -11747,20 +11727,20 @@
       <c r="M77" t="s">
         <v>39</v>
       </c>
-      <c r="N77">
-        <v>10523212</v>
+      <c r="N77" s="4">
+        <v>10632695</v>
       </c>
       <c r="O77" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="P77" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="R77" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="S77" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="U77" t="s">
         <v>44</v>
@@ -11772,25 +11752,22 @@
         <v>46</v>
       </c>
       <c r="X77" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="Z77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AA77" t="s">
         <v>56</v>
       </c>
       <c r="AB77" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s">
         <v>58</v>
       </c>
       <c r="AD77" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11833,20 +11810,20 @@
       <c r="M78" t="s">
         <v>39</v>
       </c>
-      <c r="N78">
-        <v>10523218</v>
+      <c r="N78" s="4">
+        <v>10767791</v>
       </c>
       <c r="O78" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="P78" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="R78" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="S78" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="U78" t="s">
         <v>44</v>
@@ -11858,25 +11835,22 @@
         <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="AA78" t="s">
         <v>56</v>
       </c>
       <c r="AB78" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC78" t="s">
         <v>58</v>
       </c>
       <c r="AD78" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11919,20 +11893,20 @@
       <c r="M79" t="s">
         <v>39</v>
       </c>
-      <c r="N79">
-        <v>10529180</v>
+      <c r="N79" s="4">
+        <v>10767809</v>
       </c>
       <c r="O79" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="P79" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="R79" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="S79" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="U79" t="s">
         <v>44</v>
@@ -11944,25 +11918,22 @@
         <v>46</v>
       </c>
       <c r="X79" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="Z79" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="AA79" t="s">
         <v>56</v>
       </c>
       <c r="AB79" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC79" t="s">
         <v>58</v>
       </c>
       <c r="AD79" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12006,22 +11977,22 @@
         <v>39</v>
       </c>
       <c r="N80">
-        <v>10540585</v>
+        <v>10312595</v>
       </c>
       <c r="O80" t="s">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="R80" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="S80" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="U80" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V80" t="s">
         <v>45</v>
@@ -12030,25 +12001,25 @@
         <v>46</v>
       </c>
       <c r="X80" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="Y80" t="s">
         <v>48</v>
       </c>
       <c r="Z80" t="s">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="AA80" t="s">
         <v>56</v>
       </c>
       <c r="AB80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AC80" t="s">
         <v>58</v>
       </c>
       <c r="AD80" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12092,22 +12063,22 @@
         <v>39</v>
       </c>
       <c r="N81">
-        <v>10598727</v>
+        <v>10522580</v>
       </c>
       <c r="O81" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="P81" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="R81" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="S81" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="U81" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V81" t="s">
         <v>45</v>
@@ -12116,19 +12087,19 @@
         <v>46</v>
       </c>
       <c r="X81" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="Y81" t="s">
         <v>48</v>
       </c>
       <c r="Z81" t="s">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="AA81" t="s">
         <v>56</v>
       </c>
       <c r="AB81" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC81" t="s">
         <v>58</v>
@@ -12177,23 +12148,23 @@
       <c r="M82" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="4">
-        <v>10598900</v>
+      <c r="N82">
+        <v>10523161</v>
       </c>
       <c r="O82" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="P82" t="s">
-        <v>123</v>
+        <v>353</v>
       </c>
       <c r="R82" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="S82" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="U82" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V82" t="s">
         <v>45</v>
@@ -12202,13 +12173,13 @@
         <v>46</v>
       </c>
       <c r="X82" t="s">
-        <v>187</v>
+        <v>356</v>
       </c>
       <c r="Y82" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="Z82" t="s">
-        <v>188</v>
+        <v>357</v>
       </c>
       <c r="AA82" t="s">
         <v>56</v>
@@ -12263,23 +12234,23 @@
       <c r="M83" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="4">
-        <v>10600452</v>
+      <c r="N83">
+        <v>10523176</v>
       </c>
       <c r="O83" t="s">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="R83" t="s">
-        <v>191</v>
+        <v>360</v>
       </c>
       <c r="S83" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="U83" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V83" t="s">
         <v>45</v>
@@ -12288,22 +12259,25 @@
         <v>46</v>
       </c>
       <c r="X83" t="s">
-        <v>193</v>
+        <v>361</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>48</v>
       </c>
       <c r="Z83" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="AA83" t="s">
         <v>56</v>
       </c>
       <c r="AB83" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC83" t="s">
         <v>58</v>
       </c>
       <c r="AD83" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12346,23 +12320,23 @@
       <c r="M84" t="s">
         <v>39</v>
       </c>
-      <c r="N84" s="4">
-        <v>10623502</v>
+      <c r="N84">
+        <v>10523182</v>
       </c>
       <c r="O84" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="R84" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="S84" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="U84" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V84" t="s">
         <v>45</v>
@@ -12371,22 +12345,25 @@
         <v>46</v>
       </c>
       <c r="X84" t="s">
-        <v>199</v>
+        <v>365</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>48</v>
       </c>
       <c r="Z84" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="AA84" t="s">
         <v>56</v>
       </c>
       <c r="AB84" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AC84" t="s">
         <v>58</v>
       </c>
       <c r="AD84" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12430,22 +12407,22 @@
         <v>39</v>
       </c>
       <c r="N85" s="4">
-        <v>10632465</v>
+        <v>10538237</v>
       </c>
       <c r="O85" t="s">
-        <v>201</v>
+        <v>395</v>
       </c>
       <c r="P85" t="s">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="R85" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="S85" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="U85" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V85" t="s">
         <v>45</v>
@@ -12454,16 +12431,16 @@
         <v>46</v>
       </c>
       <c r="X85" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
       <c r="Z85" t="s">
-        <v>205</v>
+        <v>399</v>
       </c>
       <c r="AA85" t="s">
         <v>56</v>
       </c>
       <c r="AB85" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC85" t="s">
         <v>58</v>
@@ -12513,22 +12490,22 @@
         <v>39</v>
       </c>
       <c r="N86" s="4">
-        <v>10632492</v>
+        <v>10598485</v>
       </c>
       <c r="O86" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="R86" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S86" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="U86" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V86" t="s">
         <v>45</v>
@@ -12537,22 +12514,22 @@
         <v>46</v>
       </c>
       <c r="X86" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="Z86" t="s">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="AA86" t="s">
         <v>56</v>
       </c>
       <c r="AB86" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AC86" t="s">
         <v>58</v>
       </c>
       <c r="AD86" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,23 +12572,23 @@
       <c r="M87" t="s">
         <v>39</v>
       </c>
-      <c r="N87" s="4">
-        <v>10632583</v>
+      <c r="N87">
+        <v>10598681</v>
       </c>
       <c r="O87" t="s">
-        <v>211</v>
+        <v>404</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="R87" t="s">
-        <v>166</v>
+        <v>413</v>
       </c>
       <c r="S87" t="s">
-        <v>213</v>
+        <v>414</v>
       </c>
       <c r="U87" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V87" t="s">
         <v>45</v>
@@ -12620,16 +12597,19 @@
         <v>46</v>
       </c>
       <c r="X87" t="s">
-        <v>214</v>
+        <v>415</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>48</v>
       </c>
       <c r="Z87" t="s">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="AA87" t="s">
         <v>56</v>
       </c>
       <c r="AB87" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s">
         <v>58</v>
@@ -12679,22 +12659,22 @@
         <v>39</v>
       </c>
       <c r="N88" s="4">
-        <v>10632606</v>
+        <v>10632763</v>
       </c>
       <c r="O88" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="R88" t="s">
-        <v>166</v>
+        <v>435</v>
       </c>
       <c r="S88" t="s">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="U88" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V88" t="s">
         <v>45</v>
@@ -12703,16 +12683,16 @@
         <v>46</v>
       </c>
       <c r="X88" t="s">
-        <v>219</v>
+        <v>437</v>
       </c>
       <c r="Z88" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="AA88" t="s">
         <v>56</v>
       </c>
       <c r="AB88" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC88" t="s">
         <v>58</v>
@@ -12762,22 +12742,22 @@
         <v>39</v>
       </c>
       <c r="N89" s="4">
-        <v>10632695</v>
+        <v>10634783</v>
       </c>
       <c r="O89" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="R89" t="s">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="S89" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="U89" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V89" t="s">
         <v>45</v>
@@ -12786,10 +12766,10 @@
         <v>46</v>
       </c>
       <c r="X89" t="s">
-        <v>153</v>
+        <v>441</v>
       </c>
       <c r="Z89" t="s">
-        <v>154</v>
+        <v>442</v>
       </c>
       <c r="AA89" t="s">
         <v>56</v>
@@ -12844,23 +12824,23 @@
       <c r="M90" t="s">
         <v>39</v>
       </c>
-      <c r="N90" s="4">
-        <v>10632914</v>
+      <c r="N90">
+        <v>10812104</v>
       </c>
       <c r="O90" t="s">
-        <v>223</v>
+        <v>480</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>481</v>
       </c>
       <c r="R90" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="S90" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="U90" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V90" t="s">
         <v>45</v>
@@ -12869,22 +12849,25 @@
         <v>46</v>
       </c>
       <c r="X90" t="s">
-        <v>227</v>
+        <v>482</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>48</v>
       </c>
       <c r="Z90" t="s">
-        <v>228</v>
+        <v>483</v>
       </c>
       <c r="AA90" t="s">
         <v>56</v>
       </c>
       <c r="AB90" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AC90" t="s">
         <v>58</v>
       </c>
       <c r="AD90" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12927,47 +12910,50 @@
       <c r="M91" t="s">
         <v>39</v>
       </c>
-      <c r="N91" s="4">
-        <v>10632919</v>
+      <c r="N91">
+        <v>19831897</v>
       </c>
       <c r="O91" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="R91" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="S91" t="s">
-        <v>232</v>
+        <v>552</v>
       </c>
       <c r="U91" t="s">
         <v>44</v>
       </c>
       <c r="V91" t="s">
-        <v>45</v>
+        <v>553</v>
       </c>
       <c r="W91" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X91" t="s">
-        <v>233</v>
+        <v>554</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>48</v>
       </c>
       <c r="Z91" t="s">
-        <v>234</v>
+        <v>555</v>
       </c>
       <c r="AA91" t="s">
-        <v>56</v>
+        <v>556</v>
       </c>
       <c r="AB91" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC91" t="s">
         <v>58</v>
       </c>
       <c r="AD91" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13010,20 +12996,20 @@
       <c r="M92" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="4">
-        <v>10635029</v>
+      <c r="N92">
+        <v>10217942</v>
       </c>
       <c r="O92" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="R92" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="S92" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="U92" t="s">
         <v>44</v>
@@ -13035,16 +13021,19 @@
         <v>46</v>
       </c>
       <c r="X92" t="s">
-        <v>239</v>
+        <v>64</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>48</v>
       </c>
       <c r="Z92" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="AA92" t="s">
         <v>56</v>
       </c>
       <c r="AB92" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC92" t="s">
         <v>58</v>
@@ -13093,20 +13082,20 @@
       <c r="M93" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="4">
-        <v>10654406</v>
+      <c r="N93">
+        <v>10282511</v>
       </c>
       <c r="O93" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c r="P93" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="R93" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="S93" t="s">
-        <v>242</v>
+        <v>69</v>
       </c>
       <c r="U93" t="s">
         <v>44</v>
@@ -13118,16 +13107,19 @@
         <v>46</v>
       </c>
       <c r="X93" t="s">
-        <v>243</v>
+        <v>70</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>71</v>
       </c>
       <c r="Z93" t="s">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="AA93" t="s">
         <v>56</v>
       </c>
       <c r="AB93" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC93" t="s">
         <v>58</v>
@@ -13176,20 +13168,20 @@
       <c r="M94" t="s">
         <v>39</v>
       </c>
-      <c r="N94" s="4">
-        <v>10679158</v>
+      <c r="N94">
+        <v>10488517</v>
       </c>
       <c r="O94" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="R94" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="S94" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="U94" t="s">
         <v>44</v>
@@ -13200,6 +13192,15 @@
       <c r="W94" t="s">
         <v>46</v>
       </c>
+      <c r="X94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>99</v>
+      </c>
       <c r="AA94" t="s">
         <v>56</v>
       </c>
@@ -13253,20 +13254,20 @@
       <c r="M95" t="s">
         <v>39</v>
       </c>
-      <c r="N95" s="4">
-        <v>10749970</v>
+      <c r="N95">
+        <v>10523154</v>
       </c>
       <c r="O95" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="R95" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="S95" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="U95" t="s">
         <v>44</v>
@@ -13278,22 +13279,25 @@
         <v>46</v>
       </c>
       <c r="X95" t="s">
-        <v>250</v>
+        <v>153</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>48</v>
       </c>
       <c r="Z95" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="AA95" t="s">
         <v>56</v>
       </c>
       <c r="AB95" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC95" t="s">
         <v>58</v>
       </c>
       <c r="AD95" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13336,20 +13340,20 @@
       <c r="M96" t="s">
         <v>39</v>
       </c>
-      <c r="N96" s="4">
-        <v>10750309</v>
+      <c r="N96">
+        <v>10540585</v>
       </c>
       <c r="O96" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="R96" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="S96" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="U96" t="s">
         <v>44</v>
@@ -13361,16 +13365,19 @@
         <v>46</v>
       </c>
       <c r="X96" t="s">
-        <v>255</v>
+        <v>178</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>48</v>
       </c>
       <c r="Z96" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="AA96" t="s">
         <v>56</v>
       </c>
       <c r="AB96" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC96" t="s">
         <v>58</v>
@@ -13420,19 +13427,19 @@
         <v>39</v>
       </c>
       <c r="N97" s="4">
-        <v>10763371</v>
+        <v>10632492</v>
       </c>
       <c r="O97" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="R97" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="S97" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="U97" t="s">
         <v>44</v>
@@ -13444,10 +13451,10 @@
         <v>46</v>
       </c>
       <c r="X97" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="Z97" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="AA97" t="s">
         <v>56</v>
@@ -13503,19 +13510,19 @@
         <v>39</v>
       </c>
       <c r="N98" s="4">
-        <v>10763378</v>
+        <v>10632914</v>
       </c>
       <c r="O98" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="R98" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="S98" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="U98" t="s">
         <v>44</v>
@@ -13527,10 +13534,10 @@
         <v>46</v>
       </c>
       <c r="X98" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Z98" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="AA98" t="s">
         <v>56</v>
@@ -13586,19 +13593,19 @@
         <v>39</v>
       </c>
       <c r="N99" s="4">
-        <v>10763393</v>
+        <v>10679158</v>
       </c>
       <c r="O99" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="P99" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="R99" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="S99" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="U99" t="s">
         <v>44</v>
@@ -13609,12 +13616,6 @@
       <c r="W99" t="s">
         <v>46</v>
       </c>
-      <c r="X99" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>272</v>
-      </c>
       <c r="AA99" t="s">
         <v>56</v>
       </c>
@@ -13669,19 +13670,19 @@
         <v>39</v>
       </c>
       <c r="N100" s="4">
-        <v>10767383</v>
+        <v>10763371</v>
       </c>
       <c r="O100" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="R100" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="S100" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="U100" t="s">
         <v>44</v>
@@ -13693,22 +13694,22 @@
         <v>46</v>
       </c>
       <c r="X100" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="Z100" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AA100" t="s">
         <v>56</v>
       </c>
       <c r="AB100" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC100" t="s">
         <v>58</v>
       </c>
       <c r="AD100" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13752,19 +13753,19 @@
         <v>39</v>
       </c>
       <c r="N101" s="4">
-        <v>10767791</v>
+        <v>10763378</v>
       </c>
       <c r="O101" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="R101" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="S101" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="U101" t="s">
         <v>44</v>
@@ -13776,22 +13777,22 @@
         <v>46</v>
       </c>
       <c r="X101" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="Z101" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AA101" t="s">
         <v>56</v>
       </c>
       <c r="AB101" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AC101" t="s">
         <v>58</v>
       </c>
       <c r="AD101" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13835,19 +13836,19 @@
         <v>39</v>
       </c>
       <c r="N102" s="4">
-        <v>10767809</v>
+        <v>10763393</v>
       </c>
       <c r="O102" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="P102" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="R102" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="S102" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="U102" t="s">
         <v>44</v>
@@ -13859,22 +13860,22 @@
         <v>46</v>
       </c>
       <c r="X102" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Z102" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AA102" t="s">
         <v>56</v>
       </c>
       <c r="AB102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AC102" t="s">
         <v>58</v>
       </c>
       <c r="AD102" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14004,22 +14005,22 @@
         <v>39</v>
       </c>
       <c r="N104">
-        <v>10790584</v>
+        <v>10312532</v>
       </c>
       <c r="O104" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="R104" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="S104" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="U104" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="V104" t="s">
         <v>45</v>
@@ -14028,25 +14029,25 @@
         <v>46</v>
       </c>
       <c r="X104" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="Y104" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="Z104" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA104" t="s">
         <v>56</v>
       </c>
       <c r="AB104" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC104" t="s">
         <v>58</v>
       </c>
       <c r="AD104" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14089,20 +14090,20 @@
       <c r="M105" t="s">
         <v>39</v>
       </c>
-      <c r="N105">
-        <v>10217943</v>
+      <c r="N105" s="4">
+        <v>10505216</v>
       </c>
       <c r="O105" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="R105" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S105" t="s">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="U105" t="s">
         <v>301</v>
@@ -14113,26 +14114,17 @@
       <c r="W105" t="s">
         <v>46</v>
       </c>
-      <c r="X105" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>303</v>
-      </c>
       <c r="AA105" t="s">
         <v>56</v>
       </c>
       <c r="AB105" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC105" t="s">
         <v>58</v>
       </c>
       <c r="AD105" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14176,19 +14168,19 @@
         <v>39</v>
       </c>
       <c r="N106">
-        <v>10217951</v>
+        <v>10523143</v>
       </c>
       <c r="O106" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="R106" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="S106" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="U106" t="s">
         <v>301</v>
@@ -14200,25 +14192,25 @@
         <v>46</v>
       </c>
       <c r="X106" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="Y106" t="s">
         <v>48</v>
       </c>
       <c r="Z106" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="AA106" t="s">
         <v>56</v>
       </c>
       <c r="AB106" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC106" t="s">
         <v>58</v>
       </c>
       <c r="AD106" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14262,19 +14254,19 @@
         <v>39</v>
       </c>
       <c r="N107">
-        <v>10218335</v>
+        <v>10523196</v>
       </c>
       <c r="O107" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="P107" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="R107" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="S107" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="U107" t="s">
         <v>301</v>
@@ -14286,25 +14278,25 @@
         <v>46</v>
       </c>
       <c r="X107" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="Y107" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="Z107" t="s">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="AA107" t="s">
         <v>56</v>
       </c>
       <c r="AB107" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="AC107" t="s">
         <v>58</v>
       </c>
       <c r="AD107" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,19 +14340,19 @@
         <v>39</v>
       </c>
       <c r="N108">
-        <v>10312532</v>
+        <v>10593796</v>
       </c>
       <c r="O108" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="P108" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="R108" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="S108" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="U108" t="s">
         <v>301</v>
@@ -14372,13 +14364,13 @@
         <v>46</v>
       </c>
       <c r="X108" t="s">
-        <v>318</v>
+        <v>408</v>
       </c>
       <c r="Y108" t="s">
         <v>48</v>
       </c>
       <c r="Z108" t="s">
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="AA108" t="s">
         <v>56</v>
@@ -14434,19 +14426,16 @@
         <v>39</v>
       </c>
       <c r="N109">
-        <v>10312595</v>
+        <v>10793480</v>
       </c>
       <c r="O109" t="s">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="P109" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="R109" t="s">
-        <v>322</v>
-      </c>
-      <c r="S109" t="s">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="U109" t="s">
         <v>301</v>
@@ -14458,25 +14447,22 @@
         <v>46</v>
       </c>
       <c r="X109" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>48</v>
+        <v>478</v>
       </c>
       <c r="Z109" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="AA109" t="s">
         <v>56</v>
       </c>
       <c r="AB109" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AC109" t="s">
         <v>58</v>
       </c>
       <c r="AD109" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14520,49 +14506,49 @@
         <v>39</v>
       </c>
       <c r="N110">
-        <v>10491028</v>
+        <v>10149946</v>
       </c>
       <c r="O110" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="P110" t="s">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="R110" t="s">
-        <v>327</v>
+        <v>490</v>
       </c>
       <c r="S110" t="s">
-        <v>328</v>
+        <v>491</v>
       </c>
       <c r="U110" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V110" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W110" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X110" t="s">
-        <v>329</v>
+        <v>492</v>
       </c>
       <c r="Y110" t="s">
         <v>48</v>
       </c>
       <c r="Z110" t="s">
-        <v>330</v>
+        <v>493</v>
       </c>
       <c r="AA110" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB110" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC110" t="s">
         <v>58</v>
       </c>
       <c r="AD110" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14605,35 +14591,44 @@
       <c r="M111" t="s">
         <v>39</v>
       </c>
-      <c r="N111" s="4">
-        <v>10505216</v>
+      <c r="N111">
+        <v>10235653</v>
       </c>
       <c r="O111" t="s">
-        <v>331</v>
+        <v>494</v>
       </c>
       <c r="P111" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="R111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S111" t="s">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="U111" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V111" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W111" t="s">
-        <v>46</v>
+        <v>487</v>
+      </c>
+      <c r="X111" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>498</v>
       </c>
       <c r="AA111" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB111" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC111" t="s">
         <v>58</v>
@@ -14683,49 +14678,49 @@
         <v>39</v>
       </c>
       <c r="N112">
-        <v>10522580</v>
+        <v>10426112</v>
       </c>
       <c r="O112" t="s">
-        <v>333</v>
+        <v>499</v>
       </c>
       <c r="P112" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
       <c r="R112" t="s">
-        <v>114</v>
+        <v>500</v>
       </c>
       <c r="S112" t="s">
-        <v>115</v>
+        <v>501</v>
       </c>
       <c r="U112" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V112" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W112" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X112" t="s">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="Y112" t="s">
         <v>48</v>
       </c>
       <c r="Z112" t="s">
-        <v>336</v>
+        <v>503</v>
       </c>
       <c r="AA112" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB112" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC112" t="s">
         <v>58</v>
       </c>
       <c r="AD112" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14768,47 +14763,50 @@
       <c r="M113" t="s">
         <v>39</v>
       </c>
-      <c r="N113" s="4">
-        <v>10523140</v>
+      <c r="N113">
+        <v>10835878</v>
       </c>
       <c r="O113" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>531</v>
       </c>
       <c r="R113" t="s">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="S113" t="s">
         <v>337</v>
       </c>
       <c r="U113" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V113" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W113" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X113" t="s">
-        <v>338</v>
+        <v>533</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>48</v>
       </c>
       <c r="Z113" t="s">
-        <v>339</v>
+        <v>534</v>
       </c>
       <c r="AA113" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB113" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC113" t="s">
         <v>58</v>
       </c>
       <c r="AD113" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14852,43 +14850,43 @@
         <v>39</v>
       </c>
       <c r="N114">
-        <v>10523143</v>
+        <v>10307407</v>
       </c>
       <c r="O114" t="s">
-        <v>340</v>
+        <v>535</v>
       </c>
       <c r="P114" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="R114" t="s">
-        <v>342</v>
+        <v>536</v>
       </c>
       <c r="S114" t="s">
-        <v>343</v>
+        <v>537</v>
       </c>
       <c r="U114" t="s">
         <v>301</v>
       </c>
       <c r="V114" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W114" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X114" t="s">
-        <v>344</v>
+        <v>538</v>
       </c>
       <c r="Y114" t="s">
         <v>48</v>
       </c>
       <c r="Z114" t="s">
-        <v>345</v>
+        <v>539</v>
       </c>
       <c r="AA114" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB114" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC114" t="s">
         <v>58</v>
@@ -14938,49 +14936,49 @@
         <v>39</v>
       </c>
       <c r="N115">
-        <v>10523148</v>
+        <v>10621605</v>
       </c>
       <c r="O115" t="s">
-        <v>346</v>
+        <v>547</v>
       </c>
       <c r="P115" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
       <c r="R115" t="s">
-        <v>348</v>
+        <v>549</v>
       </c>
       <c r="S115" t="s">
-        <v>349</v>
+        <v>91</v>
       </c>
       <c r="U115" t="s">
         <v>301</v>
       </c>
       <c r="V115" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W115" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X115" t="s">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Y115" t="s">
         <v>48</v>
       </c>
       <c r="Z115" t="s">
-        <v>351</v>
+        <v>551</v>
       </c>
       <c r="AA115" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB115" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC115" t="s">
         <v>58</v>
       </c>
       <c r="AD115" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15024,22 +15022,22 @@
         <v>39</v>
       </c>
       <c r="N116">
-        <v>10523161</v>
+        <v>10217706</v>
       </c>
       <c r="O116" t="s">
-        <v>352</v>
+        <v>50</v>
       </c>
       <c r="P116" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="R116" t="s">
-        <v>354</v>
+        <v>52</v>
       </c>
       <c r="S116" t="s">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="U116" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V116" t="s">
         <v>45</v>
@@ -15048,25 +15046,25 @@
         <v>46</v>
       </c>
       <c r="X116" t="s">
-        <v>356</v>
+        <v>54</v>
       </c>
       <c r="Y116" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="Z116" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="AA116" t="s">
         <v>56</v>
       </c>
       <c r="AB116" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC116" t="s">
         <v>58</v>
       </c>
       <c r="AD116" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15110,22 +15108,22 @@
         <v>39</v>
       </c>
       <c r="N117">
-        <v>10523176</v>
+        <v>10312604</v>
       </c>
       <c r="O117" t="s">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="R117" t="s">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="S117" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="U117" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V117" t="s">
         <v>45</v>
@@ -15134,25 +15132,25 @@
         <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>361</v>
+        <v>86</v>
       </c>
       <c r="Y117" t="s">
         <v>48</v>
       </c>
       <c r="Z117" t="s">
-        <v>362</v>
+        <v>87</v>
       </c>
       <c r="AA117" t="s">
         <v>56</v>
       </c>
       <c r="AB117" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC117" t="s">
         <v>58</v>
       </c>
       <c r="AD117" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15196,22 +15194,22 @@
         <v>39</v>
       </c>
       <c r="N118">
-        <v>10523182</v>
+        <v>10522586</v>
       </c>
       <c r="O118" t="s">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>332</v>
+        <v>113</v>
       </c>
       <c r="R118" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="S118" t="s">
-        <v>364</v>
+        <v>115</v>
       </c>
       <c r="U118" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V118" t="s">
         <v>45</v>
@@ -15220,25 +15218,25 @@
         <v>46</v>
       </c>
       <c r="X118" t="s">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="Y118" t="s">
         <v>48</v>
       </c>
       <c r="Z118" t="s">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="AA118" t="s">
         <v>56</v>
       </c>
       <c r="AB118" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC118" t="s">
         <v>58</v>
       </c>
       <c r="AD118" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15282,22 +15280,22 @@
         <v>39</v>
       </c>
       <c r="N119">
-        <v>10523193</v>
+        <v>10522961</v>
       </c>
       <c r="O119" t="s">
-        <v>367</v>
+        <v>128</v>
       </c>
       <c r="P119" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="R119" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="S119" t="s">
-        <v>370</v>
+        <v>131</v>
       </c>
       <c r="U119" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V119" t="s">
         <v>45</v>
@@ -15306,25 +15304,25 @@
         <v>46</v>
       </c>
       <c r="X119" t="s">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="Y119" t="s">
         <v>48</v>
       </c>
       <c r="Z119" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="AA119" t="s">
         <v>56</v>
       </c>
       <c r="AB119" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC119" t="s">
         <v>58</v>
       </c>
       <c r="AD119" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15368,22 +15366,22 @@
         <v>39</v>
       </c>
       <c r="N120">
-        <v>10523196</v>
+        <v>10523212</v>
       </c>
       <c r="O120" t="s">
-        <v>373</v>
+        <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="R120" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="S120" t="s">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="U120" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V120" t="s">
         <v>45</v>
@@ -15392,19 +15390,19 @@
         <v>46</v>
       </c>
       <c r="X120" t="s">
-        <v>376</v>
+        <v>163</v>
       </c>
       <c r="Y120" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="Z120" t="s">
-        <v>378</v>
+        <v>164</v>
       </c>
       <c r="AA120" t="s">
         <v>56</v>
       </c>
       <c r="AB120" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC120" t="s">
         <v>58</v>
@@ -15454,22 +15452,22 @@
         <v>39</v>
       </c>
       <c r="N121">
-        <v>10523206</v>
+        <v>10523218</v>
       </c>
       <c r="O121" t="s">
-        <v>379</v>
+        <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="R121" t="s">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="S121" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="U121" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V121" t="s">
         <v>45</v>
@@ -15478,13 +15476,13 @@
         <v>46</v>
       </c>
       <c r="X121" t="s">
-        <v>383</v>
+        <v>167</v>
       </c>
       <c r="Y121" t="s">
         <v>48</v>
       </c>
       <c r="Z121" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="AA121" t="s">
         <v>56</v>
@@ -15540,22 +15538,22 @@
         <v>39</v>
       </c>
       <c r="N122">
-        <v>10523222</v>
+        <v>10529180</v>
       </c>
       <c r="O122" t="s">
-        <v>385</v>
+        <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>386</v>
+        <v>104</v>
       </c>
       <c r="R122" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="S122" t="s">
-        <v>387</v>
+        <v>171</v>
       </c>
       <c r="U122" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V122" t="s">
         <v>45</v>
@@ -15564,13 +15562,13 @@
         <v>46</v>
       </c>
       <c r="X122" t="s">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="Y122" t="s">
         <v>48</v>
       </c>
       <c r="Z122" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="AA122" t="s">
         <v>56</v>
@@ -15625,23 +15623,23 @@
       <c r="M123" t="s">
         <v>39</v>
       </c>
-      <c r="N123">
-        <v>10523226</v>
+      <c r="N123" s="4">
+        <v>10600452</v>
       </c>
       <c r="O123" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="P123" t="s">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="R123" t="s">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="S123" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="U123" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V123" t="s">
         <v>45</v>
@@ -15650,13 +15648,10 @@
         <v>46</v>
       </c>
       <c r="X123" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="Z123" t="s">
-        <v>394</v>
+        <v>194</v>
       </c>
       <c r="AA123" t="s">
         <v>56</v>
@@ -15712,22 +15707,22 @@
         <v>39</v>
       </c>
       <c r="N124" s="4">
-        <v>10538237</v>
+        <v>10623502</v>
       </c>
       <c r="O124" t="s">
-        <v>395</v>
+        <v>195</v>
       </c>
       <c r="P124" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="R124" t="s">
-        <v>397</v>
+        <v>197</v>
       </c>
       <c r="S124" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="U124" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V124" t="s">
         <v>45</v>
@@ -15736,22 +15731,22 @@
         <v>46</v>
       </c>
       <c r="X124" t="s">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="Z124" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="AA124" t="s">
         <v>56</v>
       </c>
       <c r="AB124" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC124" t="s">
         <v>58</v>
       </c>
       <c r="AD124" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15794,23 +15789,23 @@
       <c r="M125" t="s">
         <v>39</v>
       </c>
-      <c r="N125">
-        <v>10592605</v>
+      <c r="N125" s="4">
+        <v>10635029</v>
       </c>
       <c r="O125" t="s">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="P125" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="R125" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="S125" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="U125" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V125" t="s">
         <v>45</v>
@@ -15819,13 +15814,10 @@
         <v>46</v>
       </c>
       <c r="X125" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="Z125" t="s">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="AA125" t="s">
         <v>56</v>
@@ -15880,23 +15872,23 @@
       <c r="M126" t="s">
         <v>39</v>
       </c>
-      <c r="N126">
-        <v>10593796</v>
+      <c r="N126" s="4">
+        <v>10654406</v>
       </c>
       <c r="O126" t="s">
-        <v>404</v>
+        <v>241</v>
       </c>
       <c r="P126" t="s">
-        <v>405</v>
+        <v>129</v>
       </c>
       <c r="R126" t="s">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="S126" t="s">
-        <v>407</v>
+        <v>242</v>
       </c>
       <c r="U126" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V126" t="s">
         <v>45</v>
@@ -15905,19 +15897,16 @@
         <v>46</v>
       </c>
       <c r="X126" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="Z126" t="s">
-        <v>409</v>
+        <v>244</v>
       </c>
       <c r="AA126" t="s">
         <v>56</v>
       </c>
       <c r="AB126" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AC126" t="s">
         <v>58</v>
@@ -15967,22 +15956,22 @@
         <v>39</v>
       </c>
       <c r="N127" s="4">
-        <v>10598485</v>
+        <v>10750309</v>
       </c>
       <c r="O127" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="P127" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="R127" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="S127" t="s">
-        <v>354</v>
+        <v>115</v>
       </c>
       <c r="U127" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V127" t="s">
         <v>45</v>
@@ -15991,22 +15980,22 @@
         <v>46</v>
       </c>
       <c r="X127" t="s">
-        <v>410</v>
+        <v>255</v>
       </c>
       <c r="Z127" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
       <c r="AA127" t="s">
         <v>56</v>
       </c>
       <c r="AB127" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC127" t="s">
         <v>58</v>
       </c>
       <c r="AD127" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16050,19 +16039,19 @@
         <v>39</v>
       </c>
       <c r="N128">
-        <v>10598681</v>
+        <v>10523206</v>
       </c>
       <c r="O128" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="P128" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="R128" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="S128" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="U128" t="s">
         <v>301</v>
@@ -16074,25 +16063,25 @@
         <v>46</v>
       </c>
       <c r="X128" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="Y128" t="s">
         <v>48</v>
       </c>
       <c r="Z128" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="AA128" t="s">
         <v>56</v>
       </c>
       <c r="AB128" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC128" t="s">
         <v>58</v>
       </c>
       <c r="AD128" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16136,19 +16125,19 @@
         <v>39</v>
       </c>
       <c r="N129">
-        <v>10598703</v>
+        <v>10523222</v>
       </c>
       <c r="O129" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="P129" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="R129" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="S129" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="U129" t="s">
         <v>301</v>
@@ -16160,13 +16149,13 @@
         <v>46</v>
       </c>
       <c r="X129" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="Y129" t="s">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="Z129" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="AA129" t="s">
         <v>56</v>
@@ -16222,19 +16211,19 @@
         <v>39</v>
       </c>
       <c r="N130">
-        <v>10598862</v>
+        <v>10523226</v>
       </c>
       <c r="O130" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="P130" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="R130" t="s">
-        <v>125</v>
+        <v>392</v>
       </c>
       <c r="S130" t="s">
-        <v>424</v>
+        <v>84</v>
       </c>
       <c r="U130" t="s">
         <v>301</v>
@@ -16246,25 +16235,25 @@
         <v>46</v>
       </c>
       <c r="X130" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="Y130" t="s">
         <v>48</v>
       </c>
       <c r="Z130" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="AA130" t="s">
         <v>56</v>
       </c>
       <c r="AB130" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC130" t="s">
         <v>58</v>
       </c>
       <c r="AD130" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16307,20 +16296,20 @@
       <c r="M131" t="s">
         <v>39</v>
       </c>
-      <c r="N131" s="4">
-        <v>10632486</v>
+      <c r="N131">
+        <v>10592605</v>
       </c>
       <c r="O131" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="P131" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="R131" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="S131" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="U131" t="s">
         <v>301</v>
@@ -16332,22 +16321,25 @@
         <v>46</v>
       </c>
       <c r="X131" t="s">
-        <v>431</v>
+        <v>402</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>48</v>
       </c>
       <c r="Z131" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="AA131" t="s">
         <v>56</v>
       </c>
       <c r="AB131" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC131" t="s">
         <v>58</v>
       </c>
       <c r="AD131" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16390,20 +16382,20 @@
       <c r="M132" t="s">
         <v>39</v>
       </c>
-      <c r="N132" s="4">
-        <v>10632763</v>
+      <c r="N132">
+        <v>10598703</v>
       </c>
       <c r="O132" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P132" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="R132" t="s">
-        <v>435</v>
+        <v>186</v>
       </c>
       <c r="S132" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="U132" t="s">
         <v>301</v>
@@ -16415,22 +16407,25 @@
         <v>46</v>
       </c>
       <c r="X132" t="s">
-        <v>437</v>
+        <v>420</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>296</v>
       </c>
       <c r="Z132" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AA132" t="s">
         <v>56</v>
       </c>
       <c r="AB132" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC132" t="s">
         <v>58</v>
       </c>
       <c r="AD132" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16473,20 +16468,20 @@
       <c r="M133" t="s">
         <v>39</v>
       </c>
-      <c r="N133" s="4">
-        <v>10634783</v>
+      <c r="N133">
+        <v>10640442</v>
       </c>
       <c r="O133" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="P133" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="R133" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="S133" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="U133" t="s">
         <v>301</v>
@@ -16498,22 +16493,25 @@
         <v>46</v>
       </c>
       <c r="X133" t="s">
-        <v>441</v>
+        <v>446</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>48</v>
       </c>
       <c r="Z133" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="AA133" t="s">
         <v>56</v>
       </c>
       <c r="AB133" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AC133" t="s">
         <v>58</v>
       </c>
       <c r="AD133" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16556,20 +16554,20 @@
       <c r="M134" t="s">
         <v>39</v>
       </c>
-      <c r="N134">
-        <v>10640442</v>
+      <c r="N134" s="4">
+        <v>10646857</v>
       </c>
       <c r="O134" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P134" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="R134" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="S134" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="U134" t="s">
         <v>301</v>
@@ -16581,13 +16579,10 @@
         <v>46</v>
       </c>
       <c r="X134" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y134" t="s">
-        <v>48</v>
+        <v>451</v>
       </c>
       <c r="Z134" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AA134" t="s">
         <v>56</v>
@@ -16643,19 +16638,19 @@
         <v>39</v>
       </c>
       <c r="N135" s="4">
-        <v>10646857</v>
+        <v>10763336</v>
       </c>
       <c r="O135" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="P135" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="R135" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="S135" t="s">
-        <v>166</v>
+        <v>467</v>
       </c>
       <c r="U135" t="s">
         <v>301</v>
@@ -16667,10 +16662,10 @@
         <v>46</v>
       </c>
       <c r="X135" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="Z135" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="AA135" t="s">
         <v>56</v>
@@ -16725,20 +16720,20 @@
       <c r="M136" t="s">
         <v>39</v>
       </c>
-      <c r="N136">
-        <v>10657910</v>
+      <c r="N136" s="4">
+        <v>10763345</v>
       </c>
       <c r="O136" t="s">
-        <v>333</v>
+        <v>470</v>
       </c>
       <c r="P136" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="R136" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="S136" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="U136" t="s">
         <v>301</v>
@@ -16750,25 +16745,22 @@
         <v>46</v>
       </c>
       <c r="X136" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>48</v>
+        <v>473</v>
       </c>
       <c r="Z136" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="AA136" t="s">
         <v>56</v>
       </c>
       <c r="AB136" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="AC136" t="s">
         <v>58</v>
       </c>
       <c r="AD136" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16812,46 +16804,46 @@
         <v>39</v>
       </c>
       <c r="N137" s="4">
-        <v>10665647</v>
+        <v>10501912</v>
       </c>
       <c r="O137" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="P137" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="R137" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="S137" t="s">
-        <v>294</v>
+        <v>507</v>
       </c>
       <c r="U137" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V137" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W137" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X137" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="Z137" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="AA137" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB137" t="s">
-        <v>111</v>
+        <v>1763</v>
       </c>
       <c r="AC137" t="s">
         <v>58</v>
       </c>
       <c r="AD137" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16895,46 +16887,46 @@
         <v>39</v>
       </c>
       <c r="N138" s="4">
-        <v>10750340</v>
+        <v>10522956</v>
       </c>
       <c r="O138" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="R138" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="S138" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="U138" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V138" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W138" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X138" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="Z138" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="AA138" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB138" t="s">
-        <v>111</v>
+        <v>1763</v>
       </c>
       <c r="AC138" t="s">
         <v>58</v>
       </c>
       <c r="AD138" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16977,41 +16969,44 @@
       <c r="M139" t="s">
         <v>39</v>
       </c>
-      <c r="N139" s="4">
-        <v>10763336</v>
+      <c r="N139">
+        <v>10607457</v>
       </c>
       <c r="O139" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="P139" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="R139" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="S139" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="U139" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V139" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W139" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X139" t="s">
-        <v>468</v>
+        <v>520</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>48</v>
       </c>
       <c r="Z139" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="AA139" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB139" t="s">
-        <v>57</v>
+        <v>1763</v>
       </c>
       <c r="AC139" t="s">
         <v>58</v>
@@ -17060,41 +17055,44 @@
       <c r="M140" t="s">
         <v>39</v>
       </c>
-      <c r="N140" s="4">
-        <v>10763345</v>
+      <c r="N140">
+        <v>10516937</v>
       </c>
       <c r="O140" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="P140" t="s">
-        <v>471</v>
+        <v>207</v>
       </c>
       <c r="R140" t="s">
-        <v>472</v>
+        <v>162</v>
       </c>
       <c r="S140" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="U140" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V140" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W140" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X140" t="s">
-        <v>473</v>
+        <v>511</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>48</v>
       </c>
       <c r="Z140" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="AA140" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB140" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
       <c r="AC140" t="s">
         <v>58</v>
@@ -17143,38 +17141,41 @@
       <c r="M141" t="s">
         <v>39</v>
       </c>
-      <c r="N141">
-        <v>10793480</v>
+      <c r="N141" s="4">
+        <v>10771295</v>
       </c>
       <c r="O141" t="s">
-        <v>475</v>
+        <v>522</v>
       </c>
       <c r="P141" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="R141" t="s">
-        <v>477</v>
+        <v>524</v>
+      </c>
+      <c r="S141" t="s">
+        <v>525</v>
       </c>
       <c r="U141" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="V141" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W141" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X141" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="Z141" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="AA141" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB141" t="s">
-        <v>73</v>
+        <v>529</v>
       </c>
       <c r="AC141" t="s">
         <v>58</v>
@@ -17224,49 +17225,49 @@
         <v>39</v>
       </c>
       <c r="N142">
-        <v>10812104</v>
+        <v>10404252</v>
       </c>
       <c r="O142" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="P142" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="R142" t="s">
-        <v>279</v>
+        <v>472</v>
       </c>
       <c r="S142" t="s">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="U142" t="s">
         <v>301</v>
       </c>
       <c r="V142" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="W142" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="X142" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="Y142" t="s">
         <v>48</v>
       </c>
       <c r="Z142" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="AA142" t="s">
-        <v>56</v>
+        <v>528</v>
       </c>
       <c r="AB142" t="s">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="AC142" t="s">
         <v>58</v>
       </c>
       <c r="AD142" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -37601,8 +37602,8 @@
         <filter val="10391"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD420">
-      <sortCondition ref="W1:W420"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD142">
+      <sortCondition ref="AB1:AB420"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
